--- a/input/dynamic_data/season_17/forecasting_method/average/argentina/forecast_point_GW24.xlsx
+++ b/input/dynamic_data/season_17/forecasting_method/average/argentina/forecast_point_GW24.xlsx
@@ -4739,37 +4739,37 @@
         <v>122.0</v>
       </c>
       <c r="B123" t="n">
-        <v>0.622049999901</v>
+        <v>0.0</v>
       </c>
       <c r="C123" t="n">
-        <v>0.622049999901</v>
+        <v>0.0</v>
       </c>
       <c r="D123" t="n">
-        <v>0.622049999901</v>
+        <v>0.0</v>
       </c>
       <c r="E123" t="n">
-        <v>0.622049999901</v>
+        <v>0.0</v>
       </c>
       <c r="F123" t="n">
-        <v>0.622049999901</v>
+        <v>0.0</v>
       </c>
       <c r="G123" t="n">
-        <v>0.622049999901</v>
+        <v>0.0</v>
       </c>
       <c r="H123" t="n">
-        <v>0.622049999901</v>
+        <v>0.0</v>
       </c>
       <c r="I123" t="n">
-        <v>0.622049999901</v>
+        <v>0.0</v>
       </c>
       <c r="J123" t="n">
-        <v>0.622049999901</v>
+        <v>0.0</v>
       </c>
       <c r="K123" t="n">
-        <v>0.622049999901</v>
+        <v>0.0</v>
       </c>
       <c r="L123" t="n">
-        <v>0.622049999901</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="124">
@@ -5537,37 +5537,37 @@
         <v>143.0</v>
       </c>
       <c r="B144" t="n">
-        <v>0.3015083332201667</v>
+        <v>0.0</v>
       </c>
       <c r="C144" t="n">
-        <v>0.3015083332201667</v>
+        <v>0.0</v>
       </c>
       <c r="D144" t="n">
-        <v>0.3015083332201667</v>
+        <v>0.0</v>
       </c>
       <c r="E144" t="n">
-        <v>0.3015083332201667</v>
+        <v>0.0</v>
       </c>
       <c r="F144" t="n">
-        <v>0.3015083332201667</v>
+        <v>0.0</v>
       </c>
       <c r="G144" t="n">
-        <v>0.3015083332201667</v>
+        <v>0.0</v>
       </c>
       <c r="H144" t="n">
-        <v>0.3015083332201667</v>
+        <v>0.0</v>
       </c>
       <c r="I144" t="n">
-        <v>0.3015083332201667</v>
+        <v>0.0</v>
       </c>
       <c r="J144" t="n">
-        <v>0.3015083332201667</v>
+        <v>0.0</v>
       </c>
       <c r="K144" t="n">
-        <v>0.3015083332201667</v>
+        <v>0.0</v>
       </c>
       <c r="L144" t="n">
-        <v>0.3015083332201667</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="145">
@@ -5993,37 +5993,37 @@
         <v>155.0</v>
       </c>
       <c r="B156" t="n">
-        <v>0.33687500008749993</v>
+        <v>0.0</v>
       </c>
       <c r="C156" t="n">
-        <v>0.33687500008749993</v>
+        <v>0.0</v>
       </c>
       <c r="D156" t="n">
-        <v>0.33687500008749993</v>
+        <v>0.0</v>
       </c>
       <c r="E156" t="n">
-        <v>0.33687500008749993</v>
+        <v>0.0</v>
       </c>
       <c r="F156" t="n">
-        <v>0.33687500008749993</v>
+        <v>0.0</v>
       </c>
       <c r="G156" t="n">
-        <v>0.33687500008749993</v>
+        <v>0.0</v>
       </c>
       <c r="H156" t="n">
-        <v>0.33687500008749993</v>
+        <v>0.0</v>
       </c>
       <c r="I156" t="n">
-        <v>0.33687500008749993</v>
+        <v>0.0</v>
       </c>
       <c r="J156" t="n">
-        <v>0.33687500008749993</v>
+        <v>0.0</v>
       </c>
       <c r="K156" t="n">
-        <v>0.33687500008749993</v>
+        <v>0.0</v>
       </c>
       <c r="L156" t="n">
-        <v>0.33687500008749993</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="157">
@@ -6867,37 +6867,37 @@
         <v>178.0</v>
       </c>
       <c r="B179" t="n">
-        <v>0.31429166663499997</v>
+        <v>0.0</v>
       </c>
       <c r="C179" t="n">
-        <v>0.31429166663499997</v>
+        <v>0.0</v>
       </c>
       <c r="D179" t="n">
-        <v>0.31429166663499997</v>
+        <v>0.0</v>
       </c>
       <c r="E179" t="n">
-        <v>0.31429166663499997</v>
+        <v>0.0</v>
       </c>
       <c r="F179" t="n">
-        <v>0.31429166663499997</v>
+        <v>0.0</v>
       </c>
       <c r="G179" t="n">
-        <v>0.31429166663499997</v>
+        <v>0.0</v>
       </c>
       <c r="H179" t="n">
-        <v>0.31429166663499997</v>
+        <v>0.0</v>
       </c>
       <c r="I179" t="n">
-        <v>0.31429166663499997</v>
+        <v>0.0</v>
       </c>
       <c r="J179" t="n">
-        <v>0.31429166663499997</v>
+        <v>0.0</v>
       </c>
       <c r="K179" t="n">
-        <v>0.31429166663499997</v>
+        <v>0.0</v>
       </c>
       <c r="L179" t="n">
-        <v>0.31429166663499997</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="180">
@@ -7893,37 +7893,37 @@
         <v>205.0</v>
       </c>
       <c r="B206" t="n">
-        <v>2.3188605270740004</v>
+        <v>0.0</v>
       </c>
       <c r="C206" t="n">
-        <v>2.3188605270740004</v>
+        <v>0.0</v>
       </c>
       <c r="D206" t="n">
-        <v>2.3188605270740004</v>
+        <v>0.0</v>
       </c>
       <c r="E206" t="n">
-        <v>2.3188605270740004</v>
+        <v>0.0</v>
       </c>
       <c r="F206" t="n">
-        <v>2.3188605270740004</v>
+        <v>0.0</v>
       </c>
       <c r="G206" t="n">
-        <v>2.3188605270740004</v>
+        <v>0.0</v>
       </c>
       <c r="H206" t="n">
-        <v>2.3188605270740004</v>
+        <v>0.0</v>
       </c>
       <c r="I206" t="n">
-        <v>2.3188605270740004</v>
+        <v>0.0</v>
       </c>
       <c r="J206" t="n">
-        <v>2.3188605270740004</v>
+        <v>0.0</v>
       </c>
       <c r="K206" t="n">
-        <v>2.3188605270740004</v>
+        <v>0.0</v>
       </c>
       <c r="L206" t="n">
-        <v>2.3188605270740004</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="207">
@@ -8653,37 +8653,37 @@
         <v>225.0</v>
       </c>
       <c r="B226" t="n">
-        <v>0.31587499999999996</v>
+        <v>0.0</v>
       </c>
       <c r="C226" t="n">
-        <v>0.31587499999999996</v>
+        <v>0.0</v>
       </c>
       <c r="D226" t="n">
-        <v>0.31587499999999996</v>
+        <v>0.0</v>
       </c>
       <c r="E226" t="n">
-        <v>0.31587499999999996</v>
+        <v>0.0</v>
       </c>
       <c r="F226" t="n">
-        <v>0.31587499999999996</v>
+        <v>0.0</v>
       </c>
       <c r="G226" t="n">
-        <v>0.31587499999999996</v>
+        <v>0.0</v>
       </c>
       <c r="H226" t="n">
-        <v>0.31587499999999996</v>
+        <v>0.0</v>
       </c>
       <c r="I226" t="n">
-        <v>0.31587499999999996</v>
+        <v>0.0</v>
       </c>
       <c r="J226" t="n">
-        <v>0.31587499999999996</v>
+        <v>0.0</v>
       </c>
       <c r="K226" t="n">
-        <v>0.31587499999999996</v>
+        <v>0.0</v>
       </c>
       <c r="L226" t="n">
-        <v>0.31587499999999996</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="227">
@@ -10401,37 +10401,37 @@
         <v>271.0</v>
       </c>
       <c r="B272" t="n">
-        <v>1.382352631506</v>
+        <v>0.0</v>
       </c>
       <c r="C272" t="n">
-        <v>1.382352631506</v>
+        <v>0.0</v>
       </c>
       <c r="D272" t="n">
-        <v>1.382352631506</v>
+        <v>0.0</v>
       </c>
       <c r="E272" t="n">
-        <v>1.382352631506</v>
+        <v>0.0</v>
       </c>
       <c r="F272" t="n">
-        <v>1.382352631506</v>
+        <v>0.0</v>
       </c>
       <c r="G272" t="n">
-        <v>1.382352631506</v>
+        <v>0.0</v>
       </c>
       <c r="H272" t="n">
-        <v>1.382352631506</v>
+        <v>0.0</v>
       </c>
       <c r="I272" t="n">
-        <v>1.382352631506</v>
+        <v>0.0</v>
       </c>
       <c r="J272" t="n">
-        <v>1.382352631506</v>
+        <v>0.0</v>
       </c>
       <c r="K272" t="n">
-        <v>1.382352631506</v>
+        <v>0.0</v>
       </c>
       <c r="L272" t="n">
-        <v>1.382352631506</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="273">
@@ -12833,37 +12833,37 @@
         <v>335.0</v>
       </c>
       <c r="B336" t="n">
-        <v>2.5675999992159997</v>
+        <v>0.0</v>
       </c>
       <c r="C336" t="n">
-        <v>2.5675999992159997</v>
+        <v>0.0</v>
       </c>
       <c r="D336" t="n">
-        <v>2.5675999992159997</v>
+        <v>0.0</v>
       </c>
       <c r="E336" t="n">
-        <v>2.5675999992159997</v>
+        <v>0.0</v>
       </c>
       <c r="F336" t="n">
-        <v>2.5675999992159997</v>
+        <v>0.0</v>
       </c>
       <c r="G336" t="n">
-        <v>2.5675999992159997</v>
+        <v>0.0</v>
       </c>
       <c r="H336" t="n">
-        <v>2.5675999992159997</v>
+        <v>0.0</v>
       </c>
       <c r="I336" t="n">
-        <v>2.5675999992159997</v>
+        <v>0.0</v>
       </c>
       <c r="J336" t="n">
-        <v>2.5675999992159997</v>
+        <v>0.0</v>
       </c>
       <c r="K336" t="n">
-        <v>2.5675999992159997</v>
+        <v>0.0</v>
       </c>
       <c r="L336" t="n">
-        <v>2.5675999992159997</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="337">
@@ -15569,37 +15569,37 @@
         <v>407.0</v>
       </c>
       <c r="B408" t="n">
-        <v>1.0914750000000002</v>
+        <v>0.0</v>
       </c>
       <c r="C408" t="n">
-        <v>1.0914750000000002</v>
+        <v>0.0</v>
       </c>
       <c r="D408" t="n">
-        <v>1.0914750000000002</v>
+        <v>0.0</v>
       </c>
       <c r="E408" t="n">
-        <v>1.0914750000000002</v>
+        <v>0.0</v>
       </c>
       <c r="F408" t="n">
-        <v>1.0914750000000002</v>
+        <v>0.0</v>
       </c>
       <c r="G408" t="n">
-        <v>1.0914750000000002</v>
+        <v>0.0</v>
       </c>
       <c r="H408" t="n">
-        <v>1.0914750000000002</v>
+        <v>0.0</v>
       </c>
       <c r="I408" t="n">
-        <v>1.0914750000000002</v>
+        <v>0.0</v>
       </c>
       <c r="J408" t="n">
-        <v>1.0914750000000002</v>
+        <v>0.0</v>
       </c>
       <c r="K408" t="n">
-        <v>1.0914750000000002</v>
+        <v>0.0</v>
       </c>
       <c r="L408" t="n">
-        <v>1.0914750000000002</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="409">
@@ -17811,37 +17811,37 @@
         <v>466.0</v>
       </c>
       <c r="B467" t="n">
-        <v>0.6772131578589999</v>
+        <v>0.0</v>
       </c>
       <c r="C467" t="n">
-        <v>0.6772131578589999</v>
+        <v>0.0</v>
       </c>
       <c r="D467" t="n">
-        <v>0.6772131578589999</v>
+        <v>0.0</v>
       </c>
       <c r="E467" t="n">
-        <v>0.6772131578589999</v>
+        <v>0.0</v>
       </c>
       <c r="F467" t="n">
-        <v>0.6772131578589999</v>
+        <v>0.0</v>
       </c>
       <c r="G467" t="n">
-        <v>0.6772131578589999</v>
+        <v>0.0</v>
       </c>
       <c r="H467" t="n">
-        <v>0.6772131578589999</v>
+        <v>0.0</v>
       </c>
       <c r="I467" t="n">
-        <v>0.6772131578589999</v>
+        <v>0.0</v>
       </c>
       <c r="J467" t="n">
-        <v>0.6772131578589999</v>
+        <v>0.0</v>
       </c>
       <c r="K467" t="n">
-        <v>0.6772131578589999</v>
+        <v>0.0</v>
       </c>
       <c r="L467" t="n">
-        <v>0.6772131578589999</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="468">
@@ -21345,37 +21345,37 @@
         <v>559.0</v>
       </c>
       <c r="B560" t="n">
-        <v>1.621124999505</v>
+        <v>0.0</v>
       </c>
       <c r="C560" t="n">
-        <v>1.621124999505</v>
+        <v>0.0</v>
       </c>
       <c r="D560" t="n">
-        <v>1.621124999505</v>
+        <v>0.0</v>
       </c>
       <c r="E560" t="n">
-        <v>1.621124999505</v>
+        <v>0.0</v>
       </c>
       <c r="F560" t="n">
-        <v>1.621124999505</v>
+        <v>0.0</v>
       </c>
       <c r="G560" t="n">
-        <v>1.621124999505</v>
+        <v>0.0</v>
       </c>
       <c r="H560" t="n">
-        <v>1.621124999505</v>
+        <v>0.0</v>
       </c>
       <c r="I560" t="n">
-        <v>1.621124999505</v>
+        <v>0.0</v>
       </c>
       <c r="J560" t="n">
-        <v>1.621124999505</v>
+        <v>0.0</v>
       </c>
       <c r="K560" t="n">
-        <v>1.621124999505</v>
+        <v>0.0</v>
       </c>
       <c r="L560" t="n">
-        <v>1.621124999505</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="561">
@@ -22219,37 +22219,37 @@
         <v>582.0</v>
       </c>
       <c r="B583" t="n">
-        <v>0.356475</v>
+        <v>0.0</v>
       </c>
       <c r="C583" t="n">
-        <v>0.356475</v>
+        <v>0.0</v>
       </c>
       <c r="D583" t="n">
-        <v>0.356475</v>
+        <v>0.0</v>
       </c>
       <c r="E583" t="n">
-        <v>0.356475</v>
+        <v>0.0</v>
       </c>
       <c r="F583" t="n">
-        <v>0.356475</v>
+        <v>0.0</v>
       </c>
       <c r="G583" t="n">
-        <v>0.356475</v>
+        <v>0.0</v>
       </c>
       <c r="H583" t="n">
-        <v>0.356475</v>
+        <v>0.0</v>
       </c>
       <c r="I583" t="n">
-        <v>0.356475</v>
+        <v>0.0</v>
       </c>
       <c r="J583" t="n">
-        <v>0.356475</v>
+        <v>0.0</v>
       </c>
       <c r="K583" t="n">
-        <v>0.356475</v>
+        <v>0.0</v>
       </c>
       <c r="L583" t="n">
-        <v>0.356475</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="584">
@@ -22941,37 +22941,37 @@
         <v>601.0</v>
       </c>
       <c r="B602" t="n">
-        <v>0.31919999999999993</v>
+        <v>0.0</v>
       </c>
       <c r="C602" t="n">
-        <v>0.31919999999999993</v>
+        <v>0.0</v>
       </c>
       <c r="D602" t="n">
-        <v>0.31919999999999993</v>
+        <v>0.0</v>
       </c>
       <c r="E602" t="n">
-        <v>0.31919999999999993</v>
+        <v>0.0</v>
       </c>
       <c r="F602" t="n">
-        <v>0.31919999999999993</v>
+        <v>0.0</v>
       </c>
       <c r="G602" t="n">
-        <v>0.31919999999999993</v>
+        <v>0.0</v>
       </c>
       <c r="H602" t="n">
-        <v>0.31919999999999993</v>
+        <v>0.0</v>
       </c>
       <c r="I602" t="n">
-        <v>0.31919999999999993</v>
+        <v>0.0</v>
       </c>
       <c r="J602" t="n">
-        <v>0.31919999999999993</v>
+        <v>0.0</v>
       </c>
       <c r="K602" t="n">
-        <v>0.31919999999999993</v>
+        <v>0.0</v>
       </c>
       <c r="L602" t="n">
-        <v>0.31919999999999993</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="603">
@@ -23625,37 +23625,37 @@
         <v>619.0</v>
       </c>
       <c r="B620" t="n">
-        <v>4.147057894518</v>
+        <v>0.0</v>
       </c>
       <c r="C620" t="n">
-        <v>4.147057894518</v>
+        <v>0.0</v>
       </c>
       <c r="D620" t="n">
-        <v>4.147057894518</v>
+        <v>0.0</v>
       </c>
       <c r="E620" t="n">
-        <v>4.147057894518</v>
+        <v>0.0</v>
       </c>
       <c r="F620" t="n">
-        <v>4.147057894518</v>
+        <v>0.0</v>
       </c>
       <c r="G620" t="n">
-        <v>4.147057894518</v>
+        <v>0.0</v>
       </c>
       <c r="H620" t="n">
-        <v>4.147057894518</v>
+        <v>0.0</v>
       </c>
       <c r="I620" t="n">
-        <v>4.147057894518</v>
+        <v>0.0</v>
       </c>
       <c r="J620" t="n">
-        <v>4.147057894518</v>
+        <v>0.0</v>
       </c>
       <c r="K620" t="n">
-        <v>4.147057894518</v>
+        <v>0.0</v>
       </c>
       <c r="L620" t="n">
-        <v>4.147057894518</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="621">
